--- a/200Taxa/200taxaresults.xlsx
+++ b/200Taxa/200taxaresults.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>MF</t>
   </si>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q5"/>
+  <dimension ref="B1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -404,100 +404,264 @@
     </row>
     <row r="2" spans="2:17">
       <c r="G2">
-        <v>1024</v>
+        <v>400</v>
       </c>
       <c r="H2">
         <v>0.31</v>
       </c>
       <c r="I2">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="J2">
         <v>0.62</v>
       </c>
       <c r="O2">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="P2">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="Q2">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="G3">
+        <v>1024</v>
+      </c>
+      <c r="H3">
+        <v>0.31</v>
+      </c>
+      <c r="I3">
+        <v>0.44</v>
+      </c>
+      <c r="J3">
+        <v>0.62</v>
+      </c>
+      <c r="O3">
+        <v>0.35</v>
+      </c>
+      <c r="P3">
+        <v>0.44</v>
+      </c>
+      <c r="Q3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="G4">
         <v>2500</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>0.34</v>
-      </c>
-      <c r="I3">
-        <v>0.4</v>
-      </c>
-      <c r="J3">
-        <v>0.63</v>
-      </c>
-      <c r="O3">
-        <v>0.32</v>
-      </c>
-      <c r="P3">
-        <v>0.41</v>
-      </c>
-      <c r="Q3">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>5625</v>
-      </c>
-      <c r="H4">
-        <v>0.37</v>
       </c>
       <c r="I4">
         <v>0.4</v>
       </c>
       <c r="J4">
+        <v>0.63</v>
+      </c>
+      <c r="O4">
+        <v>0.32</v>
+      </c>
+      <c r="P4">
+        <v>0.41</v>
+      </c>
+      <c r="Q4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>5625</v>
+      </c>
+      <c r="H5">
+        <v>0.37</v>
+      </c>
+      <c r="I5">
+        <v>0.4</v>
+      </c>
+      <c r="J5">
         <v>0.64</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M5" t="s">
         <v>4</v>
       </c>
-      <c r="O4">
+      <c r="O5">
         <v>0.38</v>
-      </c>
-      <c r="P4">
-        <v>0.47</v>
-      </c>
-      <c r="Q4">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="G5">
-        <v>10100</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
-        <v>0.47</v>
-      </c>
-      <c r="J5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5">
-        <v>0.49</v>
       </c>
       <c r="P5">
         <v>0.47</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="G6">
+        <v>10100</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.47</v>
+      </c>
+      <c r="J6" t="s">
         <v>6</v>
+      </c>
+      <c r="O6">
+        <v>0.49</v>
+      </c>
+      <c r="P6">
+        <v>0.47</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>400</v>
+      </c>
+      <c r="H10">
+        <v>0.33</v>
+      </c>
+      <c r="I10">
+        <v>0.39</v>
+      </c>
+      <c r="J10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O10">
+        <v>0.35</v>
+      </c>
+      <c r="P10">
+        <v>0.38</v>
+      </c>
+      <c r="Q10">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="G11">
+        <v>1024</v>
+      </c>
+      <c r="H11">
+        <v>0.37</v>
+      </c>
+      <c r="I11">
+        <v>0.37</v>
+      </c>
+      <c r="J11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O11">
+        <v>0.39</v>
+      </c>
+      <c r="P11">
+        <v>0.37</v>
+      </c>
+      <c r="Q11">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="G12">
+        <v>2500</v>
+      </c>
+      <c r="H12">
+        <v>0.38</v>
+      </c>
+      <c r="I12">
+        <v>0.41</v>
+      </c>
+      <c r="J12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O12">
+        <v>0.41</v>
+      </c>
+      <c r="P12">
+        <v>0.41</v>
+      </c>
+      <c r="Q12">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>5625</v>
+      </c>
+      <c r="H13">
+        <v>0.47</v>
+      </c>
+      <c r="I13">
+        <v>0.41</v>
+      </c>
+      <c r="J13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>0.51</v>
+      </c>
+      <c r="P13">
+        <v>0.39</v>
+      </c>
+      <c r="Q13">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="G14">
+        <v>10100</v>
+      </c>
+      <c r="H14">
+        <v>0.62</v>
+      </c>
+      <c r="I14">
+        <v>0.39</v>
+      </c>
+      <c r="O14">
+        <v>0.54</v>
+      </c>
+      <c r="P14">
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>

--- a/200Taxa/200taxaresults.xlsx
+++ b/200Taxa/200taxaresults.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
   <si>
     <t>MF</t>
   </si>
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q14"/>
+  <dimension ref="B1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,6 +662,147 @@
       </c>
       <c r="P14">
         <v>0.41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>400</v>
+      </c>
+      <c r="H18">
+        <v>0.34</v>
+      </c>
+      <c r="I18">
+        <v>0.3</v>
+      </c>
+      <c r="J18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O18">
+        <v>0.35</v>
+      </c>
+      <c r="P18">
+        <v>0.35</v>
+      </c>
+      <c r="Q18">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="G19">
+        <v>1024</v>
+      </c>
+      <c r="H19">
+        <v>0.36</v>
+      </c>
+      <c r="I19">
+        <v>0.32</v>
+      </c>
+      <c r="J19">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O19">
+        <v>0.34</v>
+      </c>
+      <c r="P19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q19">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="G20">
+        <v>2500</v>
+      </c>
+      <c r="H20">
+        <v>0.42</v>
+      </c>
+      <c r="I20">
+        <v>0.35</v>
+      </c>
+      <c r="J20">
+        <v>0.59</v>
+      </c>
+      <c r="O20">
+        <v>0.43</v>
+      </c>
+      <c r="P20">
+        <v>0.34</v>
+      </c>
+      <c r="Q20">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>5625</v>
+      </c>
+      <c r="H21">
+        <v>0.38</v>
+      </c>
+      <c r="I21">
+        <v>0.36</v>
+      </c>
+      <c r="J21">
+        <v>0.6</v>
+      </c>
+      <c r="M21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>0.42</v>
+      </c>
+      <c r="P21">
+        <v>0.37</v>
+      </c>
+      <c r="Q21">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="G22">
+        <v>10100</v>
+      </c>
+      <c r="H22">
+        <v>0.59</v>
+      </c>
+      <c r="I22">
+        <v>0.4</v>
+      </c>
+      <c r="O22">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P22">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>

--- a/200Taxa/200taxaresults.xlsx
+++ b/200Taxa/200taxaresults.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t>MF</t>
   </si>
@@ -37,6 +37,69 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>400TN</t>
+  </si>
+  <si>
+    <t>0.3,</t>
+  </si>
+  <si>
+    <t>400ld</t>
+  </si>
+  <si>
+    <t>0.54,</t>
+  </si>
+  <si>
+    <t>0.343,</t>
+  </si>
+  <si>
+    <t>0.333,</t>
+  </si>
+  <si>
+    <t>0.313,</t>
+  </si>
+  <si>
+    <t>0.353,</t>
+  </si>
+  <si>
+    <t>0.348,</t>
+  </si>
+  <si>
+    <t>0.419,</t>
+  </si>
+  <si>
+    <t>0.374,</t>
+  </si>
+  <si>
+    <t>0.384,</t>
+  </si>
+  <si>
+    <t>0.394,</t>
+  </si>
+  <si>
+    <t>0.354,</t>
+  </si>
+  <si>
+    <t>0.364,</t>
+  </si>
+  <si>
+    <t>0.621,</t>
+  </si>
+  <si>
+    <t>0.626,</t>
+  </si>
+  <si>
+    <t>0.545,</t>
+  </si>
+  <si>
+    <t>0.571,</t>
+  </si>
+  <si>
+    <t>0.601,</t>
+  </si>
+  <si>
+    <t>0.616,</t>
   </si>
 </sst>
 </file>
@@ -368,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q22"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,7 +727,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="1:17">
       <c r="G17" t="s">
         <v>5</v>
       </c>
@@ -687,7 +750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="1:17">
       <c r="B18">
         <v>3</v>
       </c>
@@ -713,7 +776,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="1:17">
       <c r="G19">
         <v>1024</v>
       </c>
@@ -736,7 +799,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="1:17">
       <c r="G20">
         <v>2500</v>
       </c>
@@ -759,7 +822,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="1:17">
       <c r="E21" t="s">
         <v>3</v>
       </c>
@@ -788,7 +851,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="1:17">
       <c r="G22">
         <v>10100</v>
       </c>
@@ -803,6 +866,134 @@
       </c>
       <c r="P22">
         <v>0.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="B36">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="C36">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E36">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F36">
+        <v>0.374</v>
+      </c>
+      <c r="G36">
+        <v>0.64100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/200Taxa/200taxaresults.xlsx
+++ b/200Taxa/200taxaresults.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
   <si>
     <t>MF</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>0.616,</t>
+  </si>
+  <si>
+    <t>1024TN</t>
+  </si>
+  <si>
+    <t>2500TN</t>
+  </si>
+  <si>
+    <t>5625TN</t>
+  </si>
+  <si>
+    <t>10100TN</t>
   </si>
 </sst>
 </file>
@@ -431,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -727,7 +739,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:27">
       <c r="G17" t="s">
         <v>5</v>
       </c>
@@ -750,7 +762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:27">
       <c r="B18">
         <v>3</v>
       </c>
@@ -776,7 +788,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:27">
       <c r="G19">
         <v>1024</v>
       </c>
@@ -799,7 +811,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:27">
       <c r="G20">
         <v>2500</v>
       </c>
@@ -822,7 +834,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:27">
       <c r="E21" t="s">
         <v>3</v>
       </c>
@@ -851,7 +863,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:27">
       <c r="G22">
         <v>10100</v>
       </c>
@@ -868,15 +880,27 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:27">
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" t="s">
+        <v>29</v>
+      </c>
+      <c r="V30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -895,8 +919,44 @@
       <c r="G31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" t="s">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -915,8 +975,41 @@
       <c r="G32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="J32">
+        <v>0.31</v>
+      </c>
+      <c r="K32">
+        <v>0.44</v>
+      </c>
+      <c r="L32">
+        <v>0.62</v>
+      </c>
+      <c r="O32">
+        <v>0.34</v>
+      </c>
+      <c r="P32">
+        <v>0.4</v>
+      </c>
+      <c r="Q32">
+        <v>0.63</v>
+      </c>
+      <c r="U32">
+        <v>0.37</v>
+      </c>
+      <c r="V32">
+        <v>0.4</v>
+      </c>
+      <c r="W32">
+        <v>0.64</v>
+      </c>
+      <c r="Y32">
+        <v>0.5</v>
+      </c>
+      <c r="Z32">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -935,8 +1028,41 @@
       <c r="G33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="J33">
+        <v>0.37</v>
+      </c>
+      <c r="K33">
+        <v>0.37</v>
+      </c>
+      <c r="L33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O33">
+        <v>0.38</v>
+      </c>
+      <c r="P33">
+        <v>0.41</v>
+      </c>
+      <c r="Q33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U33">
+        <v>0.47</v>
+      </c>
+      <c r="V33">
+        <v>0.41</v>
+      </c>
+      <c r="W33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y33">
+        <v>0.62</v>
+      </c>
+      <c r="Z33">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -955,8 +1081,41 @@
       <c r="G34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="J34">
+        <v>0.42</v>
+      </c>
+      <c r="K34">
+        <v>0.32</v>
+      </c>
+      <c r="L34">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O34">
+        <v>0.42</v>
+      </c>
+      <c r="P34">
+        <v>0.35</v>
+      </c>
+      <c r="Q34">
+        <v>0.59</v>
+      </c>
+      <c r="U34">
+        <v>0.38</v>
+      </c>
+      <c r="V34">
+        <v>0.36</v>
+      </c>
+      <c r="W34">
+        <v>0.6</v>
+      </c>
+      <c r="Y34">
+        <v>0.59</v>
+      </c>
+      <c r="Z34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -975,8 +1134,41 @@
       <c r="G35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="J35">
+        <v>0.41</v>
+      </c>
+      <c r="K35">
+        <v>0.39</v>
+      </c>
+      <c r="L35">
+        <v>0.61</v>
+      </c>
+      <c r="O35">
+        <v>0.39</v>
+      </c>
+      <c r="P35">
+        <v>0.39</v>
+      </c>
+      <c r="Q35">
+        <v>0.62</v>
+      </c>
+      <c r="U35">
+        <v>0.53</v>
+      </c>
+      <c r="V35">
+        <v>0.45</v>
+      </c>
+      <c r="W35">
+        <v>0.66</v>
+      </c>
+      <c r="Y35">
+        <v>0.66</v>
+      </c>
+      <c r="Z35">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36">
         <v>0.41399999999999998</v>
       </c>
@@ -994,6 +1186,39 @@
       </c>
       <c r="G36">
         <v>0.64100000000000001</v>
+      </c>
+      <c r="J36">
+        <v>0.47</v>
+      </c>
+      <c r="K36">
+        <v>0.4</v>
+      </c>
+      <c r="L36">
+        <v>0.67</v>
+      </c>
+      <c r="O36">
+        <v>0.51</v>
+      </c>
+      <c r="P36">
+        <v>0.48</v>
+      </c>
+      <c r="Q36">
+        <v>0.68</v>
+      </c>
+      <c r="U36">
+        <v>0.47</v>
+      </c>
+      <c r="V36">
+        <v>0.45</v>
+      </c>
+      <c r="W36">
+        <v>0.68</v>
+      </c>
+      <c r="Y36">
+        <v>0.6</v>
+      </c>
+      <c r="Z36">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/200Taxa/200taxaresults.xlsx
+++ b/200Taxa/200taxaresults.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
   <si>
     <t>MF</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>10100TN</t>
+  </si>
+  <si>
+    <t>1024ld</t>
+  </si>
+  <si>
+    <t>2500ld</t>
+  </si>
+  <si>
+    <t>5625ld</t>
+  </si>
+  <si>
+    <t>10100ld</t>
   </si>
 </sst>
 </file>
@@ -443,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
+      <selection activeCell="Z41" sqref="Z41:Z45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -884,9 +896,6 @@
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
       <c r="K30" t="s">
         <v>28</v>
       </c>
@@ -908,15 +917,6 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
         <v>2</v>
       </c>
       <c r="J31" t="s">
@@ -966,15 +966,6 @@
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
       <c r="J32">
         <v>0.31</v>
       </c>
@@ -1009,7 +1000,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1019,15 +1010,6 @@
       <c r="C33" t="s">
         <v>24</v>
       </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
       <c r="J33">
         <v>0.37</v>
       </c>
@@ -1062,7 +1044,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1072,15 +1054,6 @@
       <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
       <c r="J34">
         <v>0.42</v>
       </c>
@@ -1115,7 +1088,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1125,15 +1098,6 @@
       <c r="C35" t="s">
         <v>26</v>
       </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
       <c r="J35">
         <v>0.41</v>
       </c>
@@ -1168,7 +1132,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>0.41399999999999998</v>
       </c>
@@ -1178,15 +1142,6 @@
       <c r="C36">
         <v>0.67200000000000004</v>
       </c>
-      <c r="E36">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="F36">
-        <v>0.374</v>
-      </c>
-      <c r="G36">
-        <v>0.64100000000000001</v>
-      </c>
       <c r="J36">
         <v>0.47</v>
       </c>
@@ -1218,6 +1173,290 @@
         <v>0.6</v>
       </c>
       <c r="Z36">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>2</v>
+      </c>
+      <c r="U40" t="s">
+        <v>0</v>
+      </c>
+      <c r="V40" t="s">
+        <v>1</v>
+      </c>
+      <c r="W40" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41">
+        <v>0.35</v>
+      </c>
+      <c r="K41">
+        <v>0.44</v>
+      </c>
+      <c r="L41">
+        <v>0.65</v>
+      </c>
+      <c r="O41">
+        <v>0.32</v>
+      </c>
+      <c r="P41">
+        <v>0.41</v>
+      </c>
+      <c r="Q41">
+        <v>0.63</v>
+      </c>
+      <c r="U41">
+        <v>0.38</v>
+      </c>
+      <c r="V41">
+        <v>0.47</v>
+      </c>
+      <c r="W41">
+        <v>0.64</v>
+      </c>
+      <c r="Y41">
+        <v>0.49</v>
+      </c>
+      <c r="Z41">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>0.39</v>
+      </c>
+      <c r="K42">
+        <v>0.37</v>
+      </c>
+      <c r="L42">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O42">
+        <v>0.41</v>
+      </c>
+      <c r="P42">
+        <v>0.41</v>
+      </c>
+      <c r="Q42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U42">
+        <v>0.51</v>
+      </c>
+      <c r="V42">
+        <v>0.39</v>
+      </c>
+      <c r="W42">
+        <v>0.54</v>
+      </c>
+      <c r="Y42">
+        <v>0.54</v>
+      </c>
+      <c r="Z42">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43">
+        <v>0.34</v>
+      </c>
+      <c r="K43">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L43">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O43">
+        <v>0.43</v>
+      </c>
+      <c r="P43">
+        <v>0.34</v>
+      </c>
+      <c r="Q43">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U43">
+        <v>0.42</v>
+      </c>
+      <c r="V43">
+        <v>0.37</v>
+      </c>
+      <c r="W43">
+        <v>0.59</v>
+      </c>
+      <c r="Y43">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Z43">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44">
+        <v>0.41</v>
+      </c>
+      <c r="K44">
+        <v>0.4</v>
+      </c>
+      <c r="L44">
+        <v>0.62</v>
+      </c>
+      <c r="O44">
+        <v>0.43</v>
+      </c>
+      <c r="P44">
+        <v>0.4</v>
+      </c>
+      <c r="Q44">
+        <v>0.62</v>
+      </c>
+      <c r="U44">
+        <v>0.48</v>
+      </c>
+      <c r="V44">
+        <v>0.45</v>
+      </c>
+      <c r="W44">
+        <v>0.65</v>
+      </c>
+      <c r="Y44">
+        <v>0.66</v>
+      </c>
+      <c r="Z44">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="B45">
+        <v>0.374</v>
+      </c>
+      <c r="C45">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="J45">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>0.41</v>
+      </c>
+      <c r="L45">
+        <v>0.65</v>
+      </c>
+      <c r="O45">
+        <v>0.48</v>
+      </c>
+      <c r="P45">
+        <v>0.45</v>
+      </c>
+      <c r="Q45">
+        <v>0.68</v>
+      </c>
+      <c r="U45">
+        <v>0.53</v>
+      </c>
+      <c r="V45">
+        <v>0.47</v>
+      </c>
+      <c r="W45">
+        <v>0.69</v>
+      </c>
+      <c r="Y45">
+        <v>0.62</v>
+      </c>
+      <c r="Z45">
         <v>0.45</v>
       </c>
     </row>
